--- a/ModifEsteban/Base_de_données.xlsx
+++ b/ModifEsteban/Base_de_données.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,6 +499,29 @@
         <v>7.237476542487647</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Esteban </t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FAravellon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>41 Rue Baraban, 69003 Lyon</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>45.7623618</v>
+      </c>
+      <c r="E7">
+        <v>4.8686426</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ModifEsteban/Base_de_données.xlsx
+++ b/ModifEsteban/Base_de_données.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,7 +502,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Esteban </t>
+          <t>Esteban</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,6 +520,29 @@
       </c>
       <c r="E7">
         <v>4.8686426</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SCHMITT</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hadrien</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21 Bd Maréchal Lyautey, 38000 Grenoble</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>45.1859198</v>
+      </c>
+      <c r="E8">
+        <v>5.731540139877457</v>
       </c>
     </row>
   </sheetData>

--- a/ModifEsteban/Base_de_données.xlsx
+++ b/ModifEsteban/Base_de_données.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -545,6 +545,167 @@
         <v>5.731540139877457</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Faravellon</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Esteban</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>65 descente des Arrodières, 38160 Saint Antoine l'abbaye</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>45.1647736155842</v>
+      </c>
+      <c r="E9">
+        <v>5.234276220488163</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Esteban</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fara2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Place Pey Berland, 33045 Bordeaux</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>44.83773309999999</v>
+      </c>
+      <c r="E10">
+        <v>-0.5785457668342812</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lemaire</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>derennes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Pl. de la Mairie, 35000 Rennes</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>48.11136175</v>
+      </c>
+      <c r="E11">
+        <v>-1.680095690915635</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>blbala</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ndioz</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1 Sq. Jacques Chirac, 87031 Limoges</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>45.8265938</v>
+      </c>
+      <c r="E12">
+        <v>1.26029</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>blbala</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ndioz</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>87031 Limoges</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>45.8354243</v>
+      </c>
+      <c r="E13">
+        <v>1.2644847</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>blbala</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ndioz</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>42 rue baraban</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>45.7582186</v>
+      </c>
+      <c r="E14">
+        <v>4.8732024</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>esteban</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Parme</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Viale Antonio Fratti, 6b, 43121 Parma PR, Italie</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>44.8085142</v>
+      </c>
+      <c r="E15">
+        <v>10.3304325</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ModifEsteban/Base_de_données.xlsx
+++ b/ModifEsteban/Base_de_données.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -706,6 +706,29 @@
         <v>10.3304325</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ASTRID</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MONIQUE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>30 Rue Rambaud, 17000 La Rochelle</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>46.16360619065998</v>
+      </c>
+      <c r="E16">
+        <v>-1.155014376554859</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
